--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il17f-Il17ra.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Il17f</t>
+  </si>
+  <si>
+    <t>Il17ra</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il17f</t>
-  </si>
-  <si>
-    <t>Il17ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.4470106666666667</v>
+        <v>0.1573005</v>
       </c>
       <c r="H2">
-        <v>1.341032</v>
+        <v>0.314601</v>
       </c>
       <c r="I2">
-        <v>0.6046892282663149</v>
+        <v>0.2275756804884253</v>
       </c>
       <c r="J2">
-        <v>0.6046892282663149</v>
+        <v>0.1641708874697203</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N2">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O2">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P2">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q2">
-        <v>0.5396312768000001</v>
+        <v>0.2854876661595</v>
       </c>
       <c r="R2">
-        <v>3.2377876608</v>
+        <v>1.141950664638</v>
       </c>
       <c r="S2">
-        <v>0.01405468095408455</v>
+        <v>0.00435101372124239</v>
       </c>
       <c r="T2">
-        <v>0.009680698848144901</v>
+        <v>0.002133191787134152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.4470106666666667</v>
+        <v>0.1573005</v>
       </c>
       <c r="H3">
-        <v>1.341032</v>
+        <v>0.314601</v>
       </c>
       <c r="I3">
-        <v>0.6046892282663149</v>
+        <v>0.2275756804884253</v>
       </c>
       <c r="J3">
-        <v>0.6046892282663149</v>
+        <v>0.1641708874697203</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>38.655654</v>
       </c>
       <c r="O3">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P3">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q3">
-        <v>5.759829888325334</v>
+        <v>2.026851234009</v>
       </c>
       <c r="R3">
-        <v>51.83846899492801</v>
+        <v>12.161107404054</v>
       </c>
       <c r="S3">
-        <v>0.15001460239714</v>
+        <v>0.03089050272722883</v>
       </c>
       <c r="T3">
-        <v>0.1549924391783001</v>
+        <v>0.02271724623498333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.4470106666666667</v>
+        <v>0.1573005</v>
       </c>
       <c r="H4">
-        <v>1.341032</v>
+        <v>0.314601</v>
       </c>
       <c r="I4">
-        <v>0.6046892282663149</v>
+        <v>0.2275756804884253</v>
       </c>
       <c r="J4">
-        <v>0.6046892282663149</v>
+        <v>0.1641708874697203</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N4">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O4">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P4">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q4">
-        <v>6.909128136132446</v>
+        <v>3.157920269525</v>
       </c>
       <c r="R4">
-        <v>62.18215322519201</v>
+        <v>18.94752161715</v>
       </c>
       <c r="S4">
-        <v>0.179948041929786</v>
+        <v>0.04812871465913422</v>
       </c>
       <c r="T4">
-        <v>0.1859191405262044</v>
+        <v>0.03539443406083044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.4470106666666667</v>
+        <v>0.1573005</v>
       </c>
       <c r="H5">
-        <v>1.341032</v>
+        <v>0.314601</v>
       </c>
       <c r="I5">
-        <v>0.6046892282663149</v>
+        <v>0.2275756804884253</v>
       </c>
       <c r="J5">
-        <v>0.6046892282663149</v>
+        <v>0.1641708874697203</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N5">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O5">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P5">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q5">
-        <v>1.697336603218667</v>
+        <v>0.5686225887405001</v>
       </c>
       <c r="R5">
-        <v>10.184019619312</v>
+        <v>2.274490354962</v>
       </c>
       <c r="S5">
-        <v>0.04420708260534976</v>
+        <v>0.008666170133024348</v>
       </c>
       <c r="T5">
-        <v>0.03044931827734475</v>
+        <v>0.004248803643946254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.4470106666666667</v>
+        <v>0.1573005</v>
       </c>
       <c r="H6">
-        <v>1.341032</v>
+        <v>0.314601</v>
       </c>
       <c r="I6">
-        <v>0.6046892282663149</v>
+        <v>0.2275756804884253</v>
       </c>
       <c r="J6">
-        <v>0.6046892282663149</v>
+        <v>0.1641708874697203</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N6">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O6">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P6">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q6">
-        <v>0.3395379781297778</v>
+        <v>7.314009213525001</v>
       </c>
       <c r="R6">
-        <v>3.055841803168001</v>
+        <v>43.88405528115</v>
       </c>
       <c r="S6">
-        <v>0.008843256793244799</v>
+        <v>0.1114701551679681</v>
       </c>
       <c r="T6">
-        <v>0.009136696819930476</v>
+        <v>0.08197648918709266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.4470106666666667</v>
+        <v>0.1573005</v>
       </c>
       <c r="H7">
-        <v>1.341032</v>
+        <v>0.314601</v>
       </c>
       <c r="I7">
-        <v>0.6046892282663149</v>
+        <v>0.2275756804884253</v>
       </c>
       <c r="J7">
-        <v>0.6046892282663149</v>
+        <v>0.1641708874697203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N7">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O7">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P7">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q7">
-        <v>7.971656547418668</v>
+        <v>1.57927290059</v>
       </c>
       <c r="R7">
-        <v>71.74490892676802</v>
+        <v>9.47563740354</v>
       </c>
       <c r="S7">
-        <v>0.2076215635867097</v>
+        <v>0.02406912407982744</v>
       </c>
       <c r="T7">
-        <v>0.2145109346163902</v>
+        <v>0.0177007225557335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2431036666666666</v>
+        <v>0.4470106666666667</v>
       </c>
       <c r="H8">
-        <v>0.7293109999999999</v>
+        <v>1.341032</v>
       </c>
       <c r="I8">
-        <v>0.3288560644012479</v>
+        <v>0.6467160412856369</v>
       </c>
       <c r="J8">
-        <v>0.3288560644012479</v>
+        <v>0.6998020145050207</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N8">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O8">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P8">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q8">
-        <v>0.2934747464</v>
+        <v>0.811288152136</v>
       </c>
       <c r="R8">
-        <v>1.7608484784</v>
+        <v>4.867728912816</v>
       </c>
       <c r="S8">
-        <v>0.007643541258750243</v>
+        <v>0.01236454775546406</v>
       </c>
       <c r="T8">
-        <v>0.00526478127116982</v>
+        <v>0.009093036731237618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2431036666666666</v>
+        <v>0.4470106666666667</v>
       </c>
       <c r="H9">
-        <v>0.7293109999999999</v>
+        <v>1.341032</v>
       </c>
       <c r="I9">
-        <v>0.3288560644012479</v>
+        <v>0.6467160412856369</v>
       </c>
       <c r="J9">
-        <v>0.3288560644012479</v>
+        <v>0.6998020145050207</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>38.655654</v>
       </c>
       <c r="O9">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P9">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q9">
-        <v>3.132443741599333</v>
+        <v>5.759829888325333</v>
       </c>
       <c r="R9">
-        <v>28.19199367439399</v>
+        <v>51.838468994928</v>
       </c>
       <c r="S9">
-        <v>0.08158440640406832</v>
+        <v>0.08778347314704686</v>
       </c>
       <c r="T9">
-        <v>0.08429156859013448</v>
+        <v>0.09683552866326607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2431036666666666</v>
+        <v>0.4470106666666667</v>
       </c>
       <c r="H10">
-        <v>0.7293109999999999</v>
+        <v>1.341032</v>
       </c>
       <c r="I10">
-        <v>0.3288560644012479</v>
+        <v>0.6467160412856369</v>
       </c>
       <c r="J10">
-        <v>0.3288560644012479</v>
+        <v>0.6998020145050207</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N10">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O10">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P10">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q10">
-        <v>3.757481663443444</v>
+        <v>8.974059490977778</v>
       </c>
       <c r="R10">
-        <v>33.817334970991</v>
+        <v>80.7665354188</v>
       </c>
       <c r="S10">
-        <v>0.09786350095139723</v>
+        <v>0.1367703778792144</v>
       </c>
       <c r="T10">
-        <v>0.1011108417221264</v>
+        <v>0.1508738646649679</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2431036666666666</v>
+        <v>0.4470106666666667</v>
       </c>
       <c r="H11">
-        <v>0.7293109999999999</v>
+        <v>1.341032</v>
       </c>
       <c r="I11">
-        <v>0.3288560644012479</v>
+        <v>0.6467160412856369</v>
       </c>
       <c r="J11">
-        <v>0.3288560644012479</v>
+        <v>0.6998020145050207</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N11">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O11">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P11">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q11">
-        <v>0.9230847999376665</v>
+        <v>1.615890365730667</v>
       </c>
       <c r="R11">
-        <v>5.538508799625999</v>
+        <v>9.695342194384001</v>
       </c>
       <c r="S11">
-        <v>0.02404171684343866</v>
+        <v>0.0246271975525187</v>
       </c>
       <c r="T11">
-        <v>0.01655965164303952</v>
+        <v>0.0181111364816022</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2431036666666666</v>
+        <v>0.4470106666666667</v>
       </c>
       <c r="H12">
-        <v>0.7293109999999999</v>
+        <v>1.341032</v>
       </c>
       <c r="I12">
-        <v>0.3288560644012479</v>
+        <v>0.6467160412856369</v>
       </c>
       <c r="J12">
-        <v>0.3288560644012479</v>
+        <v>0.6998020145050207</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N12">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O12">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P12">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q12">
-        <v>0.1846553865737778</v>
+        <v>20.78467731853333</v>
       </c>
       <c r="R12">
-        <v>1.661898479164</v>
+        <v>187.0620958668</v>
       </c>
       <c r="S12">
-        <v>0.004809344188012035</v>
+        <v>0.3167717100395116</v>
       </c>
       <c r="T12">
-        <v>0.004968929521771527</v>
+        <v>0.3494365728257229</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2431036666666666</v>
+        <v>0.4470106666666667</v>
       </c>
       <c r="H13">
-        <v>0.7293109999999999</v>
+        <v>1.341032</v>
       </c>
       <c r="I13">
-        <v>0.3288560644012479</v>
+        <v>0.6467160412856369</v>
       </c>
       <c r="J13">
-        <v>0.3288560644012479</v>
+        <v>0.6998020145050207</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N13">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O13">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P13">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q13">
-        <v>4.335330408412666</v>
+        <v>4.487918551697778</v>
       </c>
       <c r="R13">
-        <v>39.017973675714</v>
+        <v>40.39126696528</v>
       </c>
       <c r="S13">
-        <v>0.1129135547555814</v>
+        <v>0.0683987349118813</v>
       </c>
       <c r="T13">
-        <v>0.1166602916530061</v>
+        <v>0.075451875138224</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.049126</v>
+        <v>0.08688966666666666</v>
       </c>
       <c r="H14">
-        <v>0.147378</v>
+        <v>0.260669</v>
       </c>
       <c r="I14">
-        <v>0.06645470733243722</v>
+        <v>0.1257082782259377</v>
       </c>
       <c r="J14">
-        <v>0.06645470733243722</v>
+        <v>0.1360270980252591</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.2072</v>
+        <v>1.814919</v>
       </c>
       <c r="N14">
-        <v>2.4144</v>
+        <v>3.629838</v>
       </c>
       <c r="O14">
-        <v>0.02324281680092149</v>
+        <v>0.0191189748917995</v>
       </c>
       <c r="P14">
-        <v>0.01600937869506974</v>
+        <v>0.01299372757260387</v>
       </c>
       <c r="Q14">
-        <v>0.05930490720000001</v>
+        <v>0.157697706937</v>
       </c>
       <c r="R14">
-        <v>0.3558294432</v>
+        <v>0.9461862416219999</v>
       </c>
       <c r="S14">
-        <v>0.001544594588086692</v>
+        <v>0.002403413415093049</v>
       </c>
       <c r="T14">
-        <v>0.001063898575755015</v>
+        <v>0.001767499054232098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.049126</v>
+        <v>0.08688966666666666</v>
       </c>
       <c r="H15">
-        <v>0.147378</v>
+        <v>0.260669</v>
       </c>
       <c r="I15">
-        <v>0.06645470733243722</v>
+        <v>0.1257082782259377</v>
       </c>
       <c r="J15">
-        <v>0.06645470733243722</v>
+        <v>0.1360270980252591</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>38.655654</v>
       </c>
       <c r="O15">
-        <v>0.2480854551142611</v>
+        <v>0.1357372750064124</v>
       </c>
       <c r="P15">
-        <v>0.2563175130846534</v>
+        <v>0.1383756071804954</v>
       </c>
       <c r="Q15">
-        <v>0.6329992194680001</v>
+        <v>1.119592296947333</v>
       </c>
       <c r="R15">
-        <v>5.696992975212</v>
+        <v>10.076330672526</v>
       </c>
       <c r="S15">
-        <v>0.01648644631305271</v>
+        <v>0.01706329913213671</v>
       </c>
       <c r="T15">
-        <v>0.01703350531621879</v>
+        <v>0.01882283228224598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.049126</v>
+        <v>0.08688966666666666</v>
       </c>
       <c r="H16">
-        <v>0.147378</v>
+        <v>0.260669</v>
       </c>
       <c r="I16">
-        <v>0.06645470733243722</v>
+        <v>0.1257082782259377</v>
       </c>
       <c r="J16">
-        <v>0.06645470733243722</v>
+        <v>0.1360270980252591</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.45629366666667</v>
+        <v>20.07571666666667</v>
       </c>
       <c r="N16">
-        <v>46.368881</v>
+        <v>60.22715</v>
       </c>
       <c r="O16">
-        <v>0.2975876425742018</v>
+        <v>0.2114844369830725</v>
       </c>
       <c r="P16">
-        <v>0.3074622993686315</v>
+        <v>0.2155950705167418</v>
       </c>
       <c r="Q16">
-        <v>0.7593058826686667</v>
+        <v>1.744372329261111</v>
       </c>
       <c r="R16">
-        <v>6.833752944018</v>
+        <v>15.69935096335</v>
       </c>
       <c r="S16">
-        <v>0.01977609969301851</v>
+        <v>0.02658534444472386</v>
       </c>
       <c r="T16">
-        <v>0.0204323171203006</v>
+        <v>0.02932677179094348</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.049126</v>
+        <v>0.08688966666666666</v>
       </c>
       <c r="H17">
-        <v>0.147378</v>
+        <v>0.260669</v>
       </c>
       <c r="I17">
-        <v>0.06645470733243722</v>
+        <v>0.1257082782259377</v>
       </c>
       <c r="J17">
-        <v>0.06645470733243722</v>
+        <v>0.1360270980252591</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.797083</v>
+        <v>3.614881</v>
       </c>
       <c r="N17">
-        <v>7.594166</v>
+        <v>7.229762000000001</v>
       </c>
       <c r="O17">
-        <v>0.07310711112234373</v>
+        <v>0.03808038765137348</v>
       </c>
       <c r="P17">
-        <v>0.05035531782936669</v>
+        <v>0.02588037202838355</v>
       </c>
       <c r="Q17">
-        <v>0.186535499458</v>
+        <v>0.3140958051296667</v>
       </c>
       <c r="R17">
-        <v>1.119212996748</v>
+        <v>1.884574830778</v>
       </c>
       <c r="S17">
-        <v>0.004858311673555319</v>
+        <v>0.004787019965830419</v>
       </c>
       <c r="T17">
-        <v>0.003346347908982421</v>
+        <v>0.003520431902835102</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.049126</v>
+        <v>0.08688966666666666</v>
       </c>
       <c r="H18">
-        <v>0.147378</v>
+        <v>0.260669</v>
       </c>
       <c r="I18">
-        <v>0.06645470733243722</v>
+        <v>0.1257082782259377</v>
       </c>
       <c r="J18">
-        <v>0.06645470733243722</v>
+        <v>0.1360270980252591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7595746666666666</v>
+        <v>46.49705</v>
       </c>
       <c r="N18">
-        <v>2.278724</v>
+        <v>139.49115</v>
       </c>
       <c r="O18">
-        <v>0.01462446555993567</v>
+        <v>0.4898157611952634</v>
       </c>
       <c r="P18">
-        <v>0.01510973966929427</v>
+        <v>0.4993363345386824</v>
       </c>
       <c r="Q18">
-        <v>0.03731486507466666</v>
+        <v>4.040113175483333</v>
       </c>
       <c r="R18">
-        <v>0.335833785672</v>
+        <v>36.36101857935</v>
       </c>
       <c r="S18">
-        <v>0.0009718645786788323</v>
+        <v>0.06157389598778362</v>
       </c>
       <c r="T18">
-        <v>0.001004113327592267</v>
+        <v>0.0679232725258669</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.049126</v>
+        <v>0.08688966666666666</v>
       </c>
       <c r="H19">
-        <v>0.147378</v>
+        <v>0.260669</v>
       </c>
       <c r="I19">
-        <v>0.06645470733243722</v>
+        <v>0.1257082782259377</v>
       </c>
       <c r="J19">
-        <v>0.06645470733243722</v>
+        <v>0.1360270980252591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.833258</v>
+        <v>10.03984666666667</v>
       </c>
       <c r="N19">
-        <v>53.499774</v>
+        <v>30.11954</v>
       </c>
       <c r="O19">
-        <v>0.3433525088283362</v>
+        <v>0.1057631642720788</v>
       </c>
       <c r="P19">
-        <v>0.3547457513529845</v>
+        <v>0.107818888163093</v>
       </c>
       <c r="Q19">
-        <v>0.8760766325080001</v>
+        <v>0.8723589302511111</v>
       </c>
       <c r="R19">
-        <v>7.884689692572</v>
+        <v>7.85123037226</v>
       </c>
       <c r="S19">
-        <v>0.02281739048604515</v>
+        <v>0.01329530528037003</v>
       </c>
       <c r="T19">
-        <v>0.02357452508358813</v>
+        <v>0.01466629046913549</v>
       </c>
     </row>
   </sheetData>
